--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="task_list_1" sheetId="1" r:id="rId1"/>
@@ -400,17 +400,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="task_list_1" sheetId="1" r:id="rId1"/>
@@ -400,17 +400,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -443,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Site</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>566-P-2927</t>
   </si>
   <si>
     <t>Result</t>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,17 +441,6 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="task_list_1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task_list_1!$A$1:$D$61</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
   <si>
     <t>Site</t>
   </si>
@@ -36,9 +39,6 @@
     <t>NASR</t>
   </si>
   <si>
-    <t>713-P-1101</t>
-  </si>
-  <si>
     <t>Perform</t>
   </si>
   <si>
@@ -48,7 +48,202 @@
     <t>Result</t>
   </si>
   <si>
+    <t>08.7-HSR3-J-302A</t>
+  </si>
+  <si>
+    <t>08.7-HSR3-J-302B</t>
+  </si>
+  <si>
+    <t>15.0-P-J11</t>
+  </si>
+  <si>
+    <t>15.0-P-J12</t>
+  </si>
+  <si>
+    <t>713-P-1101A</t>
+  </si>
+  <si>
+    <t>713-P-1101B</t>
+  </si>
+  <si>
+    <t>713-P-1200A</t>
+  </si>
+  <si>
+    <t>713-P-1200B</t>
+  </si>
+  <si>
+    <t>713-P-1200C</t>
+  </si>
+  <si>
+    <t>CPP-P-004A</t>
+  </si>
+  <si>
+    <t>CPP-P-004B</t>
+  </si>
+  <si>
+    <t>CPP-P-004C</t>
+  </si>
+  <si>
+    <t>CPP-P-005A</t>
+  </si>
+  <si>
+    <t>CPP-P-005B</t>
+  </si>
+  <si>
+    <t>CPP-P-005C</t>
+  </si>
+  <si>
+    <t>CPP-P-026A</t>
+  </si>
+  <si>
+    <t>CPP-P-026B</t>
+  </si>
+  <si>
+    <t>570-P-2901</t>
+  </si>
+  <si>
+    <t>401-P-101A</t>
+  </si>
+  <si>
+    <t>401-P-101B</t>
+  </si>
+  <si>
+    <t>401-P-102A</t>
+  </si>
+  <si>
+    <t>401-P-102B</t>
+  </si>
+  <si>
+    <t>401-P-201A</t>
+  </si>
+  <si>
+    <t>401-P-201B</t>
+  </si>
+  <si>
+    <t>401-P-202A</t>
+  </si>
+  <si>
+    <t>401-P-202B</t>
+  </si>
+  <si>
+    <t>401-P-301A</t>
+  </si>
+  <si>
+    <t>401-P-301B</t>
+  </si>
+  <si>
+    <t>401-P-302A</t>
+  </si>
+  <si>
+    <t>401-P-302B</t>
+  </si>
+  <si>
+    <t>401-P-401A</t>
+  </si>
+  <si>
+    <t>401-P-401B</t>
+  </si>
+  <si>
+    <t>401-P-402A</t>
+  </si>
+  <si>
+    <t>401-P-402B</t>
+  </si>
+  <si>
+    <t>429-P-011A</t>
+  </si>
+  <si>
+    <t>429-P-011B</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>UAD</t>
+  </si>
+  <si>
+    <t>ZIRKU</t>
+  </si>
+  <si>
+    <t>422-P-001A</t>
+  </si>
+  <si>
+    <t>422-P-001B</t>
+  </si>
+  <si>
+    <t>422-P-001C</t>
+  </si>
+  <si>
+    <t>427-P-101</t>
+  </si>
+  <si>
+    <t>427-P-201</t>
+  </si>
+  <si>
+    <t>427-P-301</t>
+  </si>
+  <si>
+    <t>SARB</t>
+  </si>
+  <si>
+    <t>615-P-3101B</t>
+  </si>
+  <si>
+    <t>615-P-3101C</t>
+  </si>
+  <si>
+    <t>613-P-0101A</t>
+  </si>
+  <si>
+    <t>613-P-0101B</t>
+  </si>
+  <si>
+    <t>613-P-0101C</t>
+  </si>
+  <si>
+    <t>442-P-007A</t>
+  </si>
+  <si>
+    <t>442-P-007B</t>
+  </si>
+  <si>
+    <t>614-P-0103A</t>
+  </si>
+  <si>
+    <t>625-P-0101A</t>
+  </si>
+  <si>
+    <t>625-P-0101B</t>
+  </si>
+  <si>
+    <t>625-P-0101C</t>
+  </si>
+  <si>
+    <t>570-P-2902</t>
+  </si>
+  <si>
+    <t>713-P-1101C</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>566-P-2928A</t>
+  </si>
+  <si>
+    <t>566-P-2928B</t>
+  </si>
+  <si>
+    <t>566-P-2935A</t>
+  </si>
+  <si>
+    <t>566-P-2935B</t>
   </si>
 </sst>
 </file>
@@ -110,10 +305,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,20 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,35 +612,855 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D042718C-1E32-4C16-B1D1-3AB0C1063412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{977187AB-6E46-4829-A049-523F1B49FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task_list_1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>Site</t>
   </si>
@@ -624,7 +624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,35 +970,17 @@
       <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2">
-        <v>204</v>
-      </c>
-      <c r="G13" s="2">
-        <v>221</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.08</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>53</v>
-      </c>
-      <c r="K13" s="2">
-        <v>449</v>
-      </c>
-      <c r="L13" s="2">
-        <v>485</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.18</v>
-      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2">
-        <v>1596</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1054,35 +1036,17 @@
       <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3423</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2272</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.38</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>-70</v>
-      </c>
-      <c r="K15" s="2">
-        <v>4424</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2937</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <v>84</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977187AB-6E46-4829-A049-523F1B49FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87D468F-CBF9-440F-8E2E-1C6A31C9611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task_list_1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Site</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,9 +733,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -751,9 +755,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -775,9 +777,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -799,9 +799,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -823,9 +821,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -847,9 +843,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -871,9 +865,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -895,9 +887,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -919,9 +909,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -943,9 +931,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -967,9 +953,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1034,9 +1018,11 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
@@ -1060,17 +1046,35 @@
       <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2662</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1767</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
+      <c r="J16" s="2">
+        <v>-69</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4388</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2914</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.49</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>86</v>
+      </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1081,9 +1085,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1105,9 +1107,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1525,9 +1525,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1549,9 +1547,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1573,9 +1569,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1597,9 +1591,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1621,9 +1613,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1645,9 +1635,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1669,9 +1657,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1693,9 +1679,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1717,9 +1701,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1741,9 +1723,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1765,9 +1745,7 @@
         <v>52</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1789,9 +1767,7 @@
         <v>53</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
